--- a/Content/Data/Stats/HeroStats.xlsx
+++ b/Content/Data/Stats/HeroStats.xlsx
@@ -14,6 +14,13 @@
   <sheets>
     <sheet name="Default" sheetId="2" r:id="rId1"/>
     <sheet name="Natsu" sheetId="1" r:id="rId2"/>
+    <sheet name="Finn" sheetId="3" r:id="rId3"/>
+    <sheet name="Shaari" sheetId="4" r:id="rId4"/>
+    <sheet name="Bhaskara" sheetId="5" r:id="rId5"/>
+    <sheet name="Reva" sheetId="6" r:id="rId6"/>
+    <sheet name="Shan'dal" sheetId="7" r:id="rId7"/>
+    <sheet name="Jaylin" sheetId="8" r:id="rId8"/>
+    <sheet name="Scrow" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1841,4 +1848,88 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Content/Data/Stats/HeroStats.xlsx
+++ b/Content/Data/Stats/HeroStats.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Default" sheetId="2" r:id="rId1"/>
-    <sheet name="Natsu" sheetId="1" r:id="rId2"/>
+    <sheet name="HeroStats_Natsu" sheetId="1" r:id="rId2"/>
     <sheet name="Finn" sheetId="3" r:id="rId3"/>
     <sheet name="Shaari" sheetId="4" r:id="rId4"/>
     <sheet name="Bhaskara" sheetId="5" r:id="rId5"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>BaseHealth</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>L1</t>
+  </si>
+  <si>
+    <t>BasePrimaryResource</t>
   </si>
 </sst>
 </file>
@@ -1385,7 +1388,7 @@
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,7 +1590,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>260</v>
@@ -1847,6 +1850,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
